--- a/ig/nr/updateReadme/ValueSet-TypeCarteVS.xlsx
+++ b/ig/nr/updateReadme/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:05:44+00:00</t>
+    <t>2023-03-16T11:24:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
